--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2562.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2562.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.059613302980934</v>
+        <v>1.55804431438446</v>
       </c>
       <c r="B1">
-        <v>1.665244615437624</v>
+        <v>1.334033727645874</v>
       </c>
       <c r="C1">
-        <v>3.62982272040352</v>
+        <v>5.219929218292236</v>
       </c>
       <c r="D1">
-        <v>2.118052111698614</v>
+        <v>3.34108304977417</v>
       </c>
       <c r="E1">
-        <v>0.7444905547641784</v>
+        <v>0.6147852540016174</v>
       </c>
     </row>
   </sheetData>
